--- a/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,83; 30,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>24,58; 31,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>17,54; 25,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>15,46; 21,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,13; 32,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>30,44; 36,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>18,05; 24,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>24,21; 28,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>26,71; 31,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>28,82; 33,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>18,61; 23,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>21,66; 25,32</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,12; 9,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,97; 12,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,43; 10,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,56; 10,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,97; 9,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,88; 12,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,05; 11,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,44; 8,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,89; 9,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,52; 11,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,05; 10,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,37; 9,2</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>8,12; 14,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>6,23; 12,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,58; 10,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,7; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,94; 12,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>5,41; 10,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>5,0; 9,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,47; 8,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>8,15; 12,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,48; 10,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,8; 9,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,58; 9,22</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,06%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>12,22; 15,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,58; 16,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>9,4; 11,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,3; 11,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,73; 17,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,83; 19,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,48; 13,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,47; 12,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,91; 15,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,74; 17,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,27; 12,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>10,25; 11,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,46; 21,31</t>
+          <t>15,33; 21,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 28,9</t>
+          <t>24,22; 28,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,66; 25,32</t>
+          <t>21,55; 25,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,16</t>
+          <t>5,04; 9,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,81</t>
+          <t>5,05; 8,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 9,2</t>
+          <t>5,99; 8,6</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,73</t>
+          <t>6,64; 10,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,96</t>
+          <t>5,52; 9,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,22</t>
+          <t>6,59; 9,25</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,41</t>
+          <t>7,45; 10,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 12,66</t>
+          <t>9,08; 12,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 11,74</t>
+          <t>8,83; 11,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,83; 30,36</t>
+          <t>23,93; 30,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 31,24</t>
+          <t>24,44; 31,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 25,1</t>
+          <t>17,38; 25,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,19</t>
+          <t>15,48; 21,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 32,9</t>
+          <t>26,7; 32,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,23</t>
+          <t>30,35; 36,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,79</t>
+          <t>18,01; 24,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,96</t>
+          <t>24,24; 29,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,71; 31,06</t>
+          <t>26,66; 31,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,82; 33,24</t>
+          <t>28,95; 33,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 23,7</t>
+          <t>18,85; 23,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 25,24</t>
+          <t>21,46; 25,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,08</t>
+          <t>6,11; 9,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,2</t>
+          <t>9,04; 12,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,18</t>
+          <t>7,34; 10,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,4</t>
+          <t>5,5; 9,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 9,93</t>
+          <t>6,85; 10,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,1</t>
+          <t>8,87; 11,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 11,03</t>
+          <t>7,9; 10,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,38</t>
+          <t>5,02; 8,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,08</t>
+          <t>6,93; 9,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 11,58</t>
+          <t>9,46; 11,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 10,05</t>
+          <t>8,06; 10,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,6</t>
+          <t>6,02; 8,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,05</t>
+          <t>8,04; 14,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,61</t>
+          <t>5,96; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,5</t>
+          <t>5,55; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,66</t>
+          <t>6,58; 10,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,78</t>
+          <t>6,99; 12,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,63</t>
+          <t>5,12; 10,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 9,99</t>
+          <t>4,95; 9,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,05</t>
+          <t>5,37; 8,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,39</t>
+          <t>8,2; 12,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,69</t>
+          <t>6,41; 10,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,22</t>
+          <t>5,8; 9,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,25</t>
+          <t>6,58; 9,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,05</t>
+          <t>12,29; 14,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 16,23</t>
+          <t>13,58; 16,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 11,91</t>
+          <t>9,57; 11,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,81</t>
+          <t>7,32; 10,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 17,43</t>
+          <t>14,76; 17,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,83; 19,66</t>
+          <t>16,79; 19,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 13,02</t>
+          <t>10,52; 12,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,27</t>
+          <t>9,05; 12,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 15,89</t>
+          <t>14,04; 16,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 17,72</t>
+          <t>15,66; 17,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 12,12</t>
+          <t>10,34; 12,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 11,22</t>
+          <t>8,88; 11,27</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>186776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>217175</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>96261</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88146</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>287510</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>375515</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>136491</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>192740</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>474286</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>592690</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>232752</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>280886</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>164945; 210983</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>190452; 242291</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79493; 114617</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74977; 103488</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>256011; 314394</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>342391; 407210</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>115069; 158134</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>174932; 210128</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>439366; 512559</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>552168; 637722</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>206607; 259607</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>258847; 303967</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>98323</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>178395</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148205</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>178123</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>115750</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>164657</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>159645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>157193</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>214072</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>343052</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>307850</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>335315</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>80339; 120952</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>152585; 208741</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>124511; 171956</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>122633; 212657</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94003; 137484</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>141119; 189673</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>135002; 187248</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>110294; 184438</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>186235; 244240</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>310110; 380919</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>274339; 342004</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>266655; 383722</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48553</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39211</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38392</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53726</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38961</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32417</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36500</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46177</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87514</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71629</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74892</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99903</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36275; 63862</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26369; 53409</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27713; 52221</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41555; 68705</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28559; 51943</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21683; 45047</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25141; 49995</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34989; 58136</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70458; 106397</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>55473; 89942</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58418; 94768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84377; 118313</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>333652</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>434781</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>282858</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>319995</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>442221</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>572589</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>332636</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>396109</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>775873</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1007370</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>615495</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>716104</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>301710; 365333</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>395029; 476711</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>253895; 316582</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>244908; 359581</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>404636; 484194</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>527466; 614199</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>300560; 370441</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>323327; 438024</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>729461; 831117</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>947588; 1070673</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>569396; 667737</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>614301; 779422</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>